--- a/templates/example_sheet_edits.xlsx
+++ b/templates/example_sheet_edits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\mathcad_auto\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCCDB24-D4B5-45F4-A0DA-1452AAB27203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B15FFE3-52CA-4FBE-9128-258908E313E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" activeTab="1" xr2:uid="{9B97A033-A49C-4F03-8482-3DF783EAAC46}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{9B97A033-A49C-4F03-8482-3DF783EAAC46}"/>
   </bookViews>
   <sheets>
     <sheet name="values" sheetId="1" r:id="rId1"/>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E901D-60E5-4378-B586-84E02EFBE42E}">
   <dimension ref="A1:R824"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -16919,7 +16919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625FF69C-FFD7-4FF3-94D0-816D33E7369C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
